--- a/stat_viz_fism_italia_triennio.xlsx
+++ b/stat_viz_fism_italia_triennio.xlsx
@@ -7,44 +7,45 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="perc" sheetId="1" r:id="rId1"/>
-    <sheet name="if" sheetId="2" r:id="rId2"/>
-    <sheet name="altmetric" sheetId="3" r:id="rId3"/>
-    <sheet name="cima_index" sheetId="4" r:id="rId4"/>
-    <sheet name="cit" sheetId="5" r:id="rId5"/>
-    <sheet name="reccit" sheetId="6" r:id="rId6"/>
-    <sheet name="fcr" sheetId="7" r:id="rId7"/>
-    <sheet name="rcr" sheetId="8" r:id="rId8"/>
+    <sheet name="num" sheetId="1" r:id="rId1"/>
+    <sheet name="perc" sheetId="2" r:id="rId2"/>
+    <sheet name="if" sheetId="3" r:id="rId3"/>
+    <sheet name="altmetric" sheetId="4" r:id="rId4"/>
+    <sheet name="cima_index" sheetId="5" r:id="rId5"/>
+    <sheet name="cit" sheetId="6" r:id="rId6"/>
+    <sheet name="reccit" sheetId="7" r:id="rId7"/>
+    <sheet name="fcr" sheetId="8" r:id="rId8"/>
+    <sheet name="rcr" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
   <si>
-    <t>italy</t>
+    <t>FISM</t>
   </si>
   <si>
-    <t>fism</t>
+    <t>ITALIA</t>
   </si>
   <si>
-    <t>any</t>
+    <t>tutte le pubblicazioni</t>
   </si>
   <si>
-    <t>prevenzione_primaria</t>
+    <t>prevenzione primaria</t>
   </si>
   <si>
-    <t>prevenzione_secondaria</t>
+    <t>prevenzione secondaria</t>
   </si>
   <si>
-    <t>prevenzione_terziaria</t>
+    <t>prevenzione terziaria</t>
   </si>
   <si>
     <t>covid</t>
   </si>
   <si>
-    <t>altre_malattie</t>
+    <t>altre malattie</t>
   </si>
 </sst>
 </file>
@@ -421,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -432,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>15.78947368421053</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -443,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>12.28571428571429</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>17.98245614035088</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -454,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>13.64285714285714</v>
+        <v>47</v>
       </c>
       <c r="C5">
-        <v>20.6140350877193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -465,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.642857142857143</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>3.508771929824561</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -476,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2.642857142857143</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2.192982456140351</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -508,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6.149315499606608</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>8.419077981651375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -519,10 +520,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6.369087719298246</v>
+        <v>10.96491228070175</v>
       </c>
       <c r="C3">
-        <v>9.414285714285716</v>
+        <v>9.428571428571429</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -530,10 +531,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9.149571428571429</v>
+        <v>17.98245614035088</v>
       </c>
       <c r="C4">
-        <v>13.95365853658537</v>
+        <v>12.28571428571429</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -541,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.963585635359116</v>
+        <v>20.6140350877193</v>
       </c>
       <c r="C5">
-        <v>6.106744680851063</v>
+        <v>13.64285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -552,10 +553,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5.743243243243244</v>
+        <v>10.96491228070175</v>
       </c>
       <c r="C6">
-        <v>6.3</v>
+        <v>8.357142857142858</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -563,10 +564,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6.597142857142857</v>
+        <v>2.192982456140351</v>
       </c>
       <c r="C7">
-        <v>5.475</v>
+        <v>2.642857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +596,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>13.45746962115797</v>
+        <v>8.419077981651375</v>
       </c>
       <c r="C2">
-        <v>31.02631578947368</v>
+        <v>6.149315499606608</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -606,10 +607,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>14.42285714285714</v>
+        <v>10.64583333333333</v>
       </c>
       <c r="C3">
-        <v>17.58333333333333</v>
+        <v>6.506359374999999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -617,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>38.48255813953488</v>
+        <v>13.95365853658537</v>
       </c>
       <c r="C4">
-        <v>106.4390243902439</v>
+        <v>9.149571428571429</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -628,10 +629,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>8.705263157894738</v>
+        <v>6.106744680851063</v>
       </c>
       <c r="C5">
-        <v>10.06382978723404</v>
+        <v>4.963585635359116</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -639,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>13.81081081081081</v>
+        <v>6.056</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>5.221290598290597</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -650,10 +651,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13.61111111111111</v>
+        <v>5.475</v>
       </c>
       <c r="C7">
-        <v>5.4</v>
+        <v>6.597142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -682,10 +683,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.086519114688129</v>
+        <v>31.02631578947368</v>
       </c>
       <c r="C2">
-        <v>2.352941176470588</v>
+        <v>13.45746962115797</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -693,10 +694,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.052238805970149</v>
+        <v>20.64</v>
       </c>
       <c r="C3">
-        <v>2.275862068965517</v>
+        <v>15.71969696969697</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -704,10 +705,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2.384</v>
+        <v>106.4390243902439</v>
       </c>
       <c r="C4">
-        <v>2.966666666666667</v>
+        <v>38.48255813953488</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -715,10 +716,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2.13768115942029</v>
+        <v>10.06382978723404</v>
       </c>
       <c r="C5">
-        <v>2.696969696969697</v>
+        <v>8.705263157894738</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -726,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>16.04</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>11.35042735042735</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -737,10 +738,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>13.61111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -769,10 +770,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10.56540385989993</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="C2">
-        <v>14.47368421052632</v>
+        <v>2.086519114688129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -780,10 +781,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>17.65714285714286</v>
+        <v>2.047619047619047</v>
       </c>
       <c r="C3">
-        <v>25.77777777777778</v>
+        <v>1.99009900990099</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -791,10 +792,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>17.47093023255814</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="C4">
-        <v>12.78048780487805</v>
+        <v>2.384</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -802,10 +803,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9.726315789473684</v>
+        <v>2.696969696969697</v>
       </c>
       <c r="C5">
-        <v>11.78723404255319</v>
+        <v>2.13768115942029</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -813,10 +814,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>22.32432432432432</v>
+        <v>3.05</v>
       </c>
       <c r="C6">
-        <v>37.75</v>
+        <v>2.293478260869565</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -824,10 +825,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13.86111111111111</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -856,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>9.441029306647605</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="C2">
-        <v>12.67105263157895</v>
+        <v>10.56540385989993</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -867,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15.64571428571429</v>
+        <v>21.08</v>
       </c>
       <c r="C3">
-        <v>23.80555555555556</v>
+        <v>14.79545454545454</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -878,10 +879,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>16.04651162790698</v>
+        <v>12.78048780487805</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>17.47093023255814</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -889,10 +890,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>8.58421052631579</v>
+        <v>11.78723404255319</v>
       </c>
       <c r="C5">
-        <v>10.06382978723404</v>
+        <v>9.726315789473684</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -900,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20.24324324324324</v>
+        <v>41.68</v>
       </c>
       <c r="C6">
-        <v>34.625</v>
+        <v>21.90598290598291</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -911,10 +912,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>12.91666666666667</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>13.86111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -943,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6.806138996138996</v>
+        <v>12.67105263157895</v>
       </c>
       <c r="C2">
-        <v>7.931085714285715</v>
+        <v>9.441029306647605</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -954,10 +955,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9.775539568345325</v>
+        <v>19.36</v>
       </c>
       <c r="C3">
-        <v>12.84892857142857</v>
+        <v>13.12878787878788</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -965,10 +966,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>12.22378571428571</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>8.577272727272728</v>
+        <v>16.04651162790698</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -976,10 +977,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6.140645161290323</v>
+        <v>10.06382978723404</v>
       </c>
       <c r="C5">
-        <v>7.556111111111111</v>
+        <v>8.58421052631579</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -987,10 +988,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10.31137931034483</v>
+        <v>31.24</v>
       </c>
       <c r="C6">
-        <v>15.8</v>
+        <v>17.68376068376068</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -998,10 +999,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7.683225806451613</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>3.79</v>
+        <v>12.91666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1030,10 +1031,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.076743455497382</v>
+        <v>7.931085714285715</v>
       </c>
       <c r="C2">
-        <v>2.387987804878049</v>
+        <v>6.806138996138996</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1041,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.666541353383459</v>
+        <v>10.2555</v>
       </c>
       <c r="C3">
-        <v>3.036785714285714</v>
+        <v>8.573076923076924</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1052,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3.197404580152672</v>
+        <v>8.577272727272728</v>
       </c>
       <c r="C4">
-        <v>2.246451612903226</v>
+        <v>12.22378571428571</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1063,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2.283059701492538</v>
+        <v>7.556111111111111</v>
       </c>
       <c r="C5">
-        <v>2.9146875</v>
+        <v>6.140645161290323</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1074,10 +1075,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.137037037037037</v>
+        <v>23.533</v>
       </c>
       <c r="C6">
-        <v>3.955</v>
+        <v>11.96726315789474</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1085,10 +1086,97 @@
         <v>7</v>
       </c>
       <c r="B7">
+        <v>3.79</v>
+      </c>
+      <c r="C7">
+        <v>7.683225806451613</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2.387987804878049</v>
+      </c>
+      <c r="C2">
+        <v>2.076743455497382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2.6535</v>
+      </c>
+      <c r="C3">
+        <v>2.4452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2.246451612903226</v>
+      </c>
+      <c r="C4">
+        <v>3.197404580152672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2.9146875</v>
+      </c>
+      <c r="C5">
+        <v>2.283059701492538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5.193</v>
+      </c>
+      <c r="C6">
+        <v>3.262613636363636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.63</v>
+      </c>
+      <c r="C7">
         <v>2.553793103448276</v>
-      </c>
-      <c r="C7">
-        <v>1.63</v>
       </c>
     </row>
   </sheetData>
